--- a/Content/TableData/BasePath_BP_File.xlsx
+++ b/Content/TableData/BasePath_BP_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC288D3D-BAE7-476A-BE67-E9BF80F06600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF9B54-D988-49E3-9680-C73E43844EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>SM_WH_BOX</t>
   </si>
   <si>
-    <t>SM_WH_RACK</t>
-  </si>
-  <si>
     <t>BP_File_Name</t>
   </si>
   <si>
@@ -405,6 +402,10 @@
   </si>
   <si>
     <t>BP_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_Rack_4x2_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +931,7 @@
         <v>412</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -938,7 +939,7 @@
         <v>413</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -946,7 +947,7 @@
         <v>414</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -954,7 +955,7 @@
         <v>415</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -962,7 +963,7 @@
         <v>416</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -970,7 +971,7 @@
         <v>417</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -978,7 +979,7 @@
         <v>420</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1049,8 +1050,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1079,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1299,7 +1300,7 @@
         <v>420</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1414,156 +1415,156 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>5001</v>
+        <v>4011</v>
       </c>
       <c r="B33">
-        <v>5001</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
+        <v>4001</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B34">
         <v>5001</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B35">
         <v>5001</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B36">
         <v>5001</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B37">
         <v>5001</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B38">
         <v>5001</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B39">
         <v>5001</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B40">
         <v>5001</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B41">
         <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B42">
         <v>5001</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="B43">
         <v>5001</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="B44">
         <v>5001</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>6001</v>
+        <v>5012</v>
       </c>
       <c r="B45">
         <v>5001</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B46">
         <v>5001</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1574,7 +1575,7 @@
         <v>7001</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1585,7 +1586,7 @@
         <v>8001</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1648,7 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1661,7 +1662,7 @@
         <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1675,7 +1676,7 @@
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1689,7 +1690,7 @@
         <v>1001</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1703,7 +1704,7 @@
         <v>1002</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1717,7 +1718,7 @@
         <v>1002</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1731,7 +1732,7 @@
         <v>1002</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1745,7 +1746,7 @@
         <v>1002</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1759,7 +1760,7 @@
         <v>1002</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1773,7 +1774,7 @@
         <v>1002</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1787,7 +1788,7 @@
         <v>1002</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1801,7 +1802,7 @@
         <v>1002</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1815,7 +1816,7 @@
         <v>1002</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1829,7 +1830,7 @@
         <v>1002</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1843,7 +1844,7 @@
         <v>1004</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1857,7 +1858,7 @@
         <v>1004</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1871,7 +1872,7 @@
         <v>1004</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1885,7 +1886,7 @@
         <v>1004</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1899,7 +1900,7 @@
         <v>1004</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1913,7 +1914,7 @@
         <v>1004</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1927,7 +1928,7 @@
         <v>1004</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1941,7 +1942,7 @@
         <v>1004</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1955,7 +1956,7 @@
         <v>1004</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1969,7 +1970,7 @@
         <v>1004</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1983,7 +1984,7 @@
         <v>1004</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1997,7 +1998,7 @@
         <v>1004</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2011,7 +2012,7 @@
         <v>1003</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2025,7 +2026,7 @@
         <v>1003</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2039,7 +2040,7 @@
         <v>1003</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2053,7 +2054,7 @@
         <v>1003</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2067,7 +2068,7 @@
         <v>1003</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2081,7 +2082,7 @@
         <v>1003</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2095,7 +2096,7 @@
         <v>1003</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -2109,7 +2110,7 @@
         <v>1003</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -2123,7 +2124,7 @@
         <v>1003</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -2137,7 +2138,7 @@
         <v>1003</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -2151,7 +2152,7 @@
         <v>1005</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -2165,7 +2166,7 @@
         <v>1005</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -2179,7 +2180,7 @@
         <v>1005</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -2193,7 +2194,7 @@
         <v>1005</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -2207,7 +2208,7 @@
         <v>1005</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -2221,7 +2222,7 @@
         <v>1005</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>

--- a/Content/TableData/BasePath_BP_File.xlsx
+++ b/Content/TableData/BasePath_BP_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF9B54-D988-49E3-9680-C73E43844EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB5C6E-7B1E-4EE0-9F9F-F55AB2FD4390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
   <si>
     <t>UI/Widget/InMarket</t>
   </si>
@@ -401,19 +401,129 @@
     <t>BP_SlotActor_4x4</t>
   </si>
   <si>
-    <t>BP_Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BP_Rack_4x2_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_SnackA</t>
+  </si>
+  <si>
+    <t>BP_SnackB</t>
+  </si>
+  <si>
+    <t>BP_SnackC</t>
+  </si>
+  <si>
+    <t>BP_GoodsA</t>
+  </si>
+  <si>
+    <t>BP_GoodsB</t>
+  </si>
+  <si>
+    <t>BP_GoodsC</t>
+  </si>
+  <si>
+    <t>BP_GoodsD</t>
+  </si>
+  <si>
+    <t>BP_GoodsE</t>
+  </si>
+  <si>
+    <t>BP_GoodsF</t>
+  </si>
+  <si>
+    <t>BP_GoodsG</t>
+  </si>
+  <si>
+    <t>BP_GoodsH</t>
+  </si>
+  <si>
+    <t>BP_GoodsI</t>
+  </si>
+  <si>
+    <t>BP_Apple</t>
+  </si>
+  <si>
+    <t>BP_Orange</t>
+  </si>
+  <si>
+    <t>BP_FruitA</t>
+  </si>
+  <si>
+    <t>BP_FruitB</t>
+  </si>
+  <si>
+    <t>BP_GreenOnion</t>
+  </si>
+  <si>
+    <t>BP_Fish</t>
+  </si>
+  <si>
+    <t>BP_FishA</t>
+  </si>
+  <si>
+    <t>BP_FishB</t>
+  </si>
+  <si>
+    <t>BP_FishC</t>
+  </si>
+  <si>
+    <t>BP_FishD</t>
+  </si>
+  <si>
+    <t>BP_Dumpling</t>
+  </si>
+  <si>
+    <t>BP_Hamburger</t>
+  </si>
+  <si>
+    <t>BP_IceCream</t>
+  </si>
+  <si>
+    <t>BP_JuiceA</t>
+  </si>
+  <si>
+    <t>BP_JuiceB</t>
+  </si>
+  <si>
+    <t>BP_JuiceC</t>
+  </si>
+  <si>
+    <t>BP_JuiceD</t>
+  </si>
+  <si>
+    <t>BP_JuiceE</t>
+  </si>
+  <si>
+    <t>BP_JuiceF</t>
+  </si>
+  <si>
+    <t>BP_MilkA</t>
+  </si>
+  <si>
+    <t>BP_MilkB</t>
+  </si>
+  <si>
+    <t>BP_MilkC</t>
+  </si>
+  <si>
+    <t>BP_MilkD</t>
+  </si>
+  <si>
+    <t>BP_MilkE</t>
+  </si>
+  <si>
+    <t>BP_MilkF</t>
+  </si>
+  <si>
+    <t>BP_MilkG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -438,6 +548,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1048,10 +1164,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1421,7 +1537,7 @@
         <v>4001</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1580,13 +1696,420 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>8001</v>
+        <v>8004</v>
       </c>
       <c r="B48">
         <v>8001</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>125</v>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>8005</v>
+      </c>
+      <c r="B49">
+        <v>8001</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8006</v>
+      </c>
+      <c r="B50">
+        <v>8001</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8007</v>
+      </c>
+      <c r="B51">
+        <v>8001</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>8008</v>
+      </c>
+      <c r="B52">
+        <v>8001</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>8009</v>
+      </c>
+      <c r="B53">
+        <v>8001</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>8010</v>
+      </c>
+      <c r="B54">
+        <v>8001</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>8011</v>
+      </c>
+      <c r="B55">
+        <v>8001</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>8012</v>
+      </c>
+      <c r="B56">
+        <v>8001</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>8013</v>
+      </c>
+      <c r="B57">
+        <v>8001</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>8014</v>
+      </c>
+      <c r="B58">
+        <v>8001</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>8015</v>
+      </c>
+      <c r="B59">
+        <v>8001</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>8016</v>
+      </c>
+      <c r="B60">
+        <v>8001</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>8017</v>
+      </c>
+      <c r="B61">
+        <v>8001</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>8018</v>
+      </c>
+      <c r="B62">
+        <v>8001</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>8019</v>
+      </c>
+      <c r="B63">
+        <v>8001</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>8020</v>
+      </c>
+      <c r="B64">
+        <v>8001</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>8021</v>
+      </c>
+      <c r="B65">
+        <v>8001</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>8022</v>
+      </c>
+      <c r="B66">
+        <v>8001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>8023</v>
+      </c>
+      <c r="B67">
+        <v>8001</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>8024</v>
+      </c>
+      <c r="B68">
+        <v>8001</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>8025</v>
+      </c>
+      <c r="B69">
+        <v>8001</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>8026</v>
+      </c>
+      <c r="B70">
+        <v>8001</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>8027</v>
+      </c>
+      <c r="B71">
+        <v>8001</v>
+      </c>
+      <c r="C71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>8028</v>
+      </c>
+      <c r="B72">
+        <v>8001</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>8029</v>
+      </c>
+      <c r="B73">
+        <v>8001</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>8030</v>
+      </c>
+      <c r="B74">
+        <v>8001</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>8031</v>
+      </c>
+      <c r="B75">
+        <v>8001</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>8032</v>
+      </c>
+      <c r="B76">
+        <v>8001</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>8033</v>
+      </c>
+      <c r="B77">
+        <v>8001</v>
+      </c>
+      <c r="C77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>8034</v>
+      </c>
+      <c r="B78">
+        <v>8001</v>
+      </c>
+      <c r="C78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>8035</v>
+      </c>
+      <c r="B79">
+        <v>8001</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>8036</v>
+      </c>
+      <c r="B80">
+        <v>8001</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>8037</v>
+      </c>
+      <c r="B81">
+        <v>8001</v>
+      </c>
+      <c r="C81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>8038</v>
+      </c>
+      <c r="B82">
+        <v>8001</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>8039</v>
+      </c>
+      <c r="B83">
+        <v>8001</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>8040</v>
+      </c>
+      <c r="B84">
+        <v>8001</v>
+      </c>
+      <c r="C84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>8041</v>
+      </c>
+      <c r="B85">
+        <v>8001</v>
+      </c>
+      <c r="C85" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Content/TableData/BasePath_BP_File.xlsx
+++ b/Content/TableData/BasePath_BP_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB5C6E-7B1E-4EE0-9F9F-F55AB2FD4390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793D6EAA-56E7-48F7-B738-43EBA08F7483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25830" yWindow="3165" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
   <si>
     <t>UI/Widget/InMarket</t>
   </si>
@@ -517,13 +517,21 @@
   </si>
   <si>
     <t>BP_MilkG</t>
+  </si>
+  <si>
+    <t>BP_StaffAICharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_CustomerAICharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -548,12 +556,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1164,10 +1166,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2110,6 +2112,28 @@
       </c>
       <c r="C85" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>9001</v>
+      </c>
+      <c r="B86">
+        <v>9001</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>9002</v>
+      </c>
+      <c r="B87">
+        <v>9001</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Content/TableData/BasePath_BP_File.xlsx
+++ b/Content/TableData/BasePath_BP_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793D6EAA-56E7-48F7-B738-43EBA08F7483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568ABCAD-7977-4257-A689-FD772E0C2482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25830" yWindow="3165" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="168">
   <si>
     <t>UI/Widget/InMarket</t>
   </si>
@@ -525,13 +525,20 @@
   <si>
     <t>BP_CustomerAICharacter</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_Wardrobe_2x2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_Palette</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -556,6 +563,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1166,10 +1179,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1544,595 +1557,617 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>5001</v>
+        <v>4012</v>
       </c>
       <c r="B34">
-        <v>5001</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
+        <v>4001</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5002</v>
+        <v>4013</v>
       </c>
       <c r="B35">
-        <v>5001</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
+        <v>4001</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B36">
         <v>5001</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B37">
         <v>5001</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B38">
         <v>5001</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B39">
         <v>5001</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B40">
         <v>5001</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B41">
         <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B42">
         <v>5001</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B43">
         <v>5001</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B44">
         <v>5001</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="B45">
         <v>5001</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>6001</v>
+        <v>5011</v>
       </c>
       <c r="B46">
         <v>5001</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>7001</v>
+        <v>5012</v>
       </c>
       <c r="B47">
-        <v>7001</v>
+        <v>5001</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>8004</v>
+        <v>6001</v>
       </c>
       <c r="B48">
-        <v>8001</v>
+        <v>5001</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>8005</v>
+        <v>7001</v>
       </c>
       <c r="B49">
-        <v>8001</v>
+        <v>7001</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>8006</v>
+        <v>8004</v>
       </c>
       <c r="B50">
         <v>8001</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>8007</v>
+        <v>8005</v>
       </c>
       <c r="B51">
         <v>8001</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>8008</v>
+        <v>8006</v>
       </c>
       <c r="B52">
         <v>8001</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>8009</v>
+        <v>8007</v>
       </c>
       <c r="B53">
         <v>8001</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>8010</v>
+        <v>8008</v>
       </c>
       <c r="B54">
         <v>8001</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>8011</v>
+        <v>8009</v>
       </c>
       <c r="B55">
         <v>8001</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>8012</v>
+        <v>8010</v>
       </c>
       <c r="B56">
         <v>8001</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>8013</v>
+        <v>8011</v>
       </c>
       <c r="B57">
         <v>8001</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>8014</v>
+        <v>8012</v>
       </c>
       <c r="B58">
         <v>8001</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>8015</v>
+        <v>8013</v>
       </c>
       <c r="B59">
         <v>8001</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>8016</v>
+        <v>8014</v>
       </c>
       <c r="B60">
         <v>8001</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>8017</v>
+        <v>8015</v>
       </c>
       <c r="B61">
         <v>8001</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>8018</v>
+        <v>8016</v>
       </c>
       <c r="B62">
         <v>8001</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>8019</v>
+        <v>8017</v>
       </c>
       <c r="B63">
         <v>8001</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>8020</v>
+        <v>8018</v>
       </c>
       <c r="B64">
         <v>8001</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>8021</v>
+        <v>8019</v>
       </c>
       <c r="B65">
         <v>8001</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>8022</v>
+        <v>8020</v>
       </c>
       <c r="B66">
         <v>8001</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>8023</v>
+        <v>8021</v>
       </c>
       <c r="B67">
         <v>8001</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>8024</v>
+        <v>8022</v>
       </c>
       <c r="B68">
         <v>8001</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>8025</v>
+        <v>8023</v>
       </c>
       <c r="B69">
         <v>8001</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>8026</v>
+        <v>8024</v>
       </c>
       <c r="B70">
         <v>8001</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>8027</v>
+        <v>8025</v>
       </c>
       <c r="B71">
         <v>8001</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>8028</v>
+        <v>8026</v>
       </c>
       <c r="B72">
         <v>8001</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>8029</v>
+        <v>8027</v>
       </c>
       <c r="B73">
         <v>8001</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>8030</v>
+        <v>8028</v>
       </c>
       <c r="B74">
         <v>8001</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>8031</v>
+        <v>8029</v>
       </c>
       <c r="B75">
         <v>8001</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>8032</v>
+        <v>8030</v>
       </c>
       <c r="B76">
         <v>8001</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>8033</v>
+        <v>8031</v>
       </c>
       <c r="B77">
         <v>8001</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>8034</v>
+        <v>8032</v>
       </c>
       <c r="B78">
         <v>8001</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>8035</v>
+        <v>8033</v>
       </c>
       <c r="B79">
         <v>8001</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>8036</v>
+        <v>8034</v>
       </c>
       <c r="B80">
         <v>8001</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>8037</v>
+        <v>8035</v>
       </c>
       <c r="B81">
         <v>8001</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>8038</v>
+        <v>8036</v>
       </c>
       <c r="B82">
         <v>8001</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>8039</v>
+        <v>8037</v>
       </c>
       <c r="B83">
         <v>8001</v>
       </c>
       <c r="C83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>8040</v>
+        <v>8038</v>
       </c>
       <c r="B84">
         <v>8001</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>8041</v>
+        <v>8039</v>
       </c>
       <c r="B85">
         <v>8001</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>9001</v>
+        <v>8040</v>
       </c>
       <c r="B86">
-        <v>9001</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>164</v>
+        <v>8001</v>
+      </c>
+      <c r="C86" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
+        <v>8041</v>
+      </c>
+      <c r="B87">
+        <v>8001</v>
+      </c>
+      <c r="C87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>9001</v>
+      </c>
+      <c r="B88">
+        <v>9001</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>9002</v>
       </c>
-      <c r="B87">
+      <c r="B89">
         <v>9001</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>165</v>
       </c>
     </row>

--- a/Content/TableData/BasePath_BP_File.xlsx
+++ b/Content/TableData/BasePath_BP_File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\MS\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568ABCAD-7977-4257-A689-FD772E0C2482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5398507-D414-400F-8292-2120967EC277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
   <si>
     <t>UI/Widget/InMarket</t>
   </si>
@@ -201,52 +201,12 @@
     <t>BP_VeggieStand_2x4_AB</t>
   </si>
   <si>
-    <t>SM_Freeze_dumpling</t>
-  </si>
-  <si>
-    <t>SM_Freeze_Hamburger</t>
-  </si>
-  <si>
-    <t>SM_Freeze_IceCream</t>
-  </si>
-  <si>
-    <t>SM_Fresh_Apple</t>
-  </si>
-  <si>
-    <t>SM_Fresh_Fish</t>
-  </si>
-  <si>
-    <t>SM_Fresh_Orange</t>
-  </si>
-  <si>
-    <t>SM_Refrgi_MilkB</t>
-  </si>
-  <si>
-    <t>SM_Refrig_JuiceA</t>
-  </si>
-  <si>
-    <t>SM_Refrig_MilkA</t>
-  </si>
-  <si>
-    <t>SM_Refrig_SnackA</t>
-  </si>
-  <si>
-    <t>SM_Refrig_SnackB</t>
-  </si>
-  <si>
-    <t>SM_Refrig_SnackC</t>
-  </si>
-  <si>
     <t>SM_WH_BOX</t>
   </si>
   <si>
     <t>BP_File_Name</t>
   </si>
   <si>
-    <t>FString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI/Widget/Staff</t>
   </si>
   <si>
@@ -394,151 +354,53 @@
     <t>UI/Widget/SystemWidgets/Setting/Modal</t>
   </si>
   <si>
+    <t>BP_SlotActor_4x4</t>
+  </si>
+  <si>
+    <t>BP_Palette</t>
+  </si>
+  <si>
+    <t>BP_Rack_4x2_A</t>
+  </si>
+  <si>
+    <t>BuyItemWidget</t>
+  </si>
+  <si>
+    <t>DialogWidget</t>
+  </si>
+  <si>
+    <t>BP_SlotActor_5x3</t>
+  </si>
+  <si>
     <t>SettingModalWidget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP_SlotActor_4x4</t>
-  </si>
-  <si>
-    <t>BP_Rack_4x2_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP_SnackA</t>
-  </si>
-  <si>
-    <t>BP_SnackB</t>
-  </si>
-  <si>
-    <t>BP_SnackC</t>
-  </si>
-  <si>
-    <t>BP_GoodsA</t>
-  </si>
-  <si>
-    <t>BP_GoodsB</t>
-  </si>
-  <si>
-    <t>BP_GoodsC</t>
-  </si>
-  <si>
-    <t>BP_GoodsD</t>
-  </si>
-  <si>
-    <t>BP_GoodsE</t>
-  </si>
-  <si>
-    <t>BP_GoodsF</t>
-  </si>
-  <si>
-    <t>BP_GoodsG</t>
-  </si>
-  <si>
-    <t>BP_GoodsH</t>
-  </si>
-  <si>
-    <t>BP_GoodsI</t>
-  </si>
-  <si>
-    <t>BP_Apple</t>
-  </si>
-  <si>
-    <t>BP_Orange</t>
-  </si>
-  <si>
-    <t>BP_FruitA</t>
-  </si>
-  <si>
-    <t>BP_FruitB</t>
-  </si>
-  <si>
-    <t>BP_GreenOnion</t>
-  </si>
-  <si>
-    <t>BP_Fish</t>
-  </si>
-  <si>
-    <t>BP_FishA</t>
-  </si>
-  <si>
-    <t>BP_FishB</t>
-  </si>
-  <si>
-    <t>BP_FishC</t>
-  </si>
-  <si>
-    <t>BP_FishD</t>
-  </si>
-  <si>
-    <t>BP_Dumpling</t>
-  </si>
-  <si>
-    <t>BP_Hamburger</t>
-  </si>
-  <si>
-    <t>BP_IceCream</t>
-  </si>
-  <si>
-    <t>BP_JuiceA</t>
-  </si>
-  <si>
-    <t>BP_JuiceB</t>
-  </si>
-  <si>
-    <t>BP_JuiceC</t>
-  </si>
-  <si>
-    <t>BP_JuiceD</t>
-  </si>
-  <si>
-    <t>BP_JuiceE</t>
-  </si>
-  <si>
-    <t>BP_JuiceF</t>
-  </si>
-  <si>
-    <t>BP_MilkA</t>
-  </si>
-  <si>
-    <t>BP_MilkB</t>
-  </si>
-  <si>
-    <t>BP_MilkC</t>
-  </si>
-  <si>
-    <t>BP_MilkD</t>
-  </si>
-  <si>
-    <t>BP_MilkE</t>
-  </si>
-  <si>
-    <t>BP_MilkF</t>
-  </si>
-  <si>
-    <t>BP_MilkG</t>
   </si>
   <si>
     <t>BP_StaffAICharacter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaffActionWidget</t>
+  </si>
+  <si>
+    <t>BuyFurnitureWidget</t>
+  </si>
+  <si>
+    <t>BP_SlotActor_3x4</t>
+  </si>
+  <si>
+    <t>BP_SlotActor_2x3</t>
+  </si>
+  <si>
+    <t>BP_SlotActor_3x3</t>
   </si>
   <si>
     <t>BP_CustomerAICharacter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP_Wardrobe_2x2_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP_Palette</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -556,13 +418,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -588,21 +443,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준_BasePath_BP_File" xfId="1" xr:uid="{CF8C748C-026C-421B-8F38-72694927AC71}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1062,7 +924,7 @@
         <v>412</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1070,7 +932,7 @@
         <v>413</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1078,7 +940,7 @@
         <v>414</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1086,7 +948,7 @@
         <v>415</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1094,7 +956,7 @@
         <v>416</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1102,7 +964,7 @@
         <v>417</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1110,7 +972,7 @@
         <v>420</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1179,10 +1041,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1192,984 +1054,631 @@
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>402</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>402</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>404</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>404</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>403</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>405</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>406</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>407</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>408</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>409</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>410</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>411</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>413</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>412</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>413</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>402</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>402</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>404</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>404</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>403</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>405</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>406</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>407</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>408</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>409</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>410</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>411</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>413</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
+      <c r="B17" s="2">
+        <v>414</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>415</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>417</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>416</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>420</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>418</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>418</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>421</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
         <v>412</v>
       </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>413</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>414</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>415</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>417</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>416</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>420</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>4001</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>4002</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>4003</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>4004</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>4005</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>4006</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>4007</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>4008</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>4009</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>4010</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>4011</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>4012</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4001</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>6001</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5001</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>7001</v>
+      </c>
+      <c r="B39" s="2">
+        <v>7001</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>7002</v>
+      </c>
+      <c r="B40" s="2">
+        <v>7001</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>7003</v>
+      </c>
+      <c r="B41" s="2">
+        <v>7001</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>7004</v>
+      </c>
+      <c r="B42" s="2">
+        <v>7001</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>7005</v>
+      </c>
+      <c r="B43" s="2">
+        <v>7001</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>9001</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9001</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>9002</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9001</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>4001</v>
-      </c>
-      <c r="B23">
-        <v>4001</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>4002</v>
-      </c>
-      <c r="B24">
-        <v>4001</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>4003</v>
-      </c>
-      <c r="B25">
-        <v>4001</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>4004</v>
-      </c>
-      <c r="B26">
-        <v>4001</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>4005</v>
-      </c>
-      <c r="B27">
-        <v>4001</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>4006</v>
-      </c>
-      <c r="B28">
-        <v>4001</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4007</v>
-      </c>
-      <c r="B29">
-        <v>4001</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>4008</v>
-      </c>
-      <c r="B30">
-        <v>4001</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>4009</v>
-      </c>
-      <c r="B31">
-        <v>4001</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>4010</v>
-      </c>
-      <c r="B32">
-        <v>4001</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4011</v>
-      </c>
-      <c r="B33">
-        <v>4001</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>4012</v>
-      </c>
-      <c r="B34">
-        <v>4001</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>4013</v>
-      </c>
-      <c r="B35">
-        <v>4001</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>5001</v>
-      </c>
-      <c r="B36">
-        <v>5001</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>5002</v>
-      </c>
-      <c r="B37">
-        <v>5001</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>5003</v>
-      </c>
-      <c r="B38">
-        <v>5001</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>5004</v>
-      </c>
-      <c r="B39">
-        <v>5001</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>5005</v>
-      </c>
-      <c r="B40">
-        <v>5001</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>5006</v>
-      </c>
-      <c r="B41">
-        <v>5001</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>5007</v>
-      </c>
-      <c r="B42">
-        <v>5001</v>
-      </c>
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>5008</v>
-      </c>
-      <c r="B43">
-        <v>5001</v>
-      </c>
-      <c r="C43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>5009</v>
-      </c>
-      <c r="B44">
-        <v>5001</v>
-      </c>
-      <c r="C44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>5010</v>
-      </c>
-      <c r="B45">
-        <v>5001</v>
-      </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>5011</v>
-      </c>
-      <c r="B46">
-        <v>5001</v>
-      </c>
-      <c r="C46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>5012</v>
-      </c>
-      <c r="B47">
-        <v>5001</v>
-      </c>
-      <c r="C47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>6001</v>
-      </c>
-      <c r="B48">
-        <v>5001</v>
-      </c>
-      <c r="C48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>7001</v>
-      </c>
-      <c r="B49">
-        <v>7001</v>
-      </c>
-      <c r="C49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>8004</v>
-      </c>
-      <c r="B50">
-        <v>8001</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>8005</v>
-      </c>
-      <c r="B51">
-        <v>8001</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>8006</v>
-      </c>
-      <c r="B52">
-        <v>8001</v>
-      </c>
-      <c r="C52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>8007</v>
-      </c>
-      <c r="B53">
-        <v>8001</v>
-      </c>
-      <c r="C53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>8008</v>
-      </c>
-      <c r="B54">
-        <v>8001</v>
-      </c>
-      <c r="C54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>8009</v>
-      </c>
-      <c r="B55">
-        <v>8001</v>
-      </c>
-      <c r="C55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>8010</v>
-      </c>
-      <c r="B56">
-        <v>8001</v>
-      </c>
-      <c r="C56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>8011</v>
-      </c>
-      <c r="B57">
-        <v>8001</v>
-      </c>
-      <c r="C57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>8012</v>
-      </c>
-      <c r="B58">
-        <v>8001</v>
-      </c>
-      <c r="C58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>8013</v>
-      </c>
-      <c r="B59">
-        <v>8001</v>
-      </c>
-      <c r="C59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>8014</v>
-      </c>
-      <c r="B60">
-        <v>8001</v>
-      </c>
-      <c r="C60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>8015</v>
-      </c>
-      <c r="B61">
-        <v>8001</v>
-      </c>
-      <c r="C61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>8016</v>
-      </c>
-      <c r="B62">
-        <v>8001</v>
-      </c>
-      <c r="C62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>8017</v>
-      </c>
-      <c r="B63">
-        <v>8001</v>
-      </c>
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>8018</v>
-      </c>
-      <c r="B64">
-        <v>8001</v>
-      </c>
-      <c r="C64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>8019</v>
-      </c>
-      <c r="B65">
-        <v>8001</v>
-      </c>
-      <c r="C65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>8020</v>
-      </c>
-      <c r="B66">
-        <v>8001</v>
-      </c>
-      <c r="C66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>8021</v>
-      </c>
-      <c r="B67">
-        <v>8001</v>
-      </c>
-      <c r="C67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>8022</v>
-      </c>
-      <c r="B68">
-        <v>8001</v>
-      </c>
-      <c r="C68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>8023</v>
-      </c>
-      <c r="B69">
-        <v>8001</v>
-      </c>
-      <c r="C69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>8024</v>
-      </c>
-      <c r="B70">
-        <v>8001</v>
-      </c>
-      <c r="C70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>8025</v>
-      </c>
-      <c r="B71">
-        <v>8001</v>
-      </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>8026</v>
-      </c>
-      <c r="B72">
-        <v>8001</v>
-      </c>
-      <c r="C72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>8027</v>
-      </c>
-      <c r="B73">
-        <v>8001</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>8028</v>
-      </c>
-      <c r="B74">
-        <v>8001</v>
-      </c>
-      <c r="C74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>8029</v>
-      </c>
-      <c r="B75">
-        <v>8001</v>
-      </c>
-      <c r="C75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>8030</v>
-      </c>
-      <c r="B76">
-        <v>8001</v>
-      </c>
-      <c r="C76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>8031</v>
-      </c>
-      <c r="B77">
-        <v>8001</v>
-      </c>
-      <c r="C77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>8032</v>
-      </c>
-      <c r="B78">
-        <v>8001</v>
-      </c>
-      <c r="C78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>8033</v>
-      </c>
-      <c r="B79">
-        <v>8001</v>
-      </c>
-      <c r="C79" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>8034</v>
-      </c>
-      <c r="B80">
-        <v>8001</v>
-      </c>
-      <c r="C80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>8035</v>
-      </c>
-      <c r="B81">
-        <v>8001</v>
-      </c>
-      <c r="C81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>8036</v>
-      </c>
-      <c r="B82">
-        <v>8001</v>
-      </c>
-      <c r="C82" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>8037</v>
-      </c>
-      <c r="B83">
-        <v>8001</v>
-      </c>
-      <c r="C83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>8038</v>
-      </c>
-      <c r="B84">
-        <v>8001</v>
-      </c>
-      <c r="C84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>8039</v>
-      </c>
-      <c r="B85">
-        <v>8001</v>
-      </c>
-      <c r="C85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>8040</v>
-      </c>
-      <c r="B86">
-        <v>8001</v>
-      </c>
-      <c r="C86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>8041</v>
-      </c>
-      <c r="B87">
-        <v>8001</v>
-      </c>
-      <c r="C87" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>9001</v>
-      </c>
-      <c r="B88">
-        <v>9001</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>9002</v>
-      </c>
-      <c r="B89">
-        <v>9001</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2230,7 +1739,7 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -2244,7 +1753,7 @@
         <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -2258,7 +1767,7 @@
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -2272,7 +1781,7 @@
         <v>1001</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -2286,7 +1795,7 @@
         <v>1002</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2300,7 +1809,7 @@
         <v>1002</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -2314,7 +1823,7 @@
         <v>1002</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2328,7 +1837,7 @@
         <v>1002</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -2342,7 +1851,7 @@
         <v>1002</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2356,7 +1865,7 @@
         <v>1002</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2370,7 +1879,7 @@
         <v>1002</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2384,7 +1893,7 @@
         <v>1002</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2398,7 +1907,7 @@
         <v>1002</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2412,7 +1921,7 @@
         <v>1002</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2426,7 +1935,7 @@
         <v>1004</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2440,7 +1949,7 @@
         <v>1004</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2454,7 +1963,7 @@
         <v>1004</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2468,7 +1977,7 @@
         <v>1004</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2482,7 +1991,7 @@
         <v>1004</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2496,7 +2005,7 @@
         <v>1004</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2510,7 +2019,7 @@
         <v>1004</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2524,7 +2033,7 @@
         <v>1004</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2538,7 +2047,7 @@
         <v>1004</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2552,7 +2061,7 @@
         <v>1004</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2566,7 +2075,7 @@
         <v>1004</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2580,7 +2089,7 @@
         <v>1004</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2594,7 +2103,7 @@
         <v>1003</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2608,7 +2117,7 @@
         <v>1003</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2622,7 +2131,7 @@
         <v>1003</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2636,7 +2145,7 @@
         <v>1003</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2650,7 +2159,7 @@
         <v>1003</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2664,7 +2173,7 @@
         <v>1003</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2678,7 +2187,7 @@
         <v>1003</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -2692,7 +2201,7 @@
         <v>1003</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -2706,7 +2215,7 @@
         <v>1003</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -2720,7 +2229,7 @@
         <v>1003</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -2734,7 +2243,7 @@
         <v>1005</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -2748,7 +2257,7 @@
         <v>1005</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -2762,7 +2271,7 @@
         <v>1005</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -2776,7 +2285,7 @@
         <v>1005</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -2790,7 +2299,7 @@
         <v>1005</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -2804,7 +2313,7 @@
         <v>1005</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>

--- a/Content/TableData/BasePath_BP_File.xlsx
+++ b/Content/TableData/BasePath_BP_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\MS\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5398507-D414-400F-8292-2120967EC277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7950B4E1-A2D6-490F-936C-480F34A337C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="1575" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
   <si>
     <t>UI/Widget/InMarket</t>
   </si>
@@ -394,6 +394,14 @@
   </si>
   <si>
     <t>BP_CustomerAICharacter</t>
+  </si>
+  <si>
+    <t>BP_SlotActor_5x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_SlotActor_5x1_4x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1041,10 +1049,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:G90"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1615,41 +1623,53 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>9001</v>
+        <v>7006</v>
       </c>
       <c r="B44" s="2">
-        <v>9001</v>
+        <v>7001</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>9002</v>
+        <v>7007</v>
       </c>
       <c r="B45" s="2">
-        <v>9001</v>
+        <v>7001</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="2">
+        <v>9001</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9001</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="2">
+        <v>9002</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9001</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
@@ -1674,11 +1694,25 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="1"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Content/TableData/BasePath_BP_File.xlsx
+++ b/Content/TableData/BasePath_BP_File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\MS\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7950B4E1-A2D6-490F-936C-480F34A337C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFE9941-7E7F-4B91-BD92-93C9849CA2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1575" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41055" yWindow="3060" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>UI/Widget/InMarket</t>
   </si>
@@ -402,13 +402,48 @@
   <si>
     <t>BP_SlotActor_5x1_4x1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_Duck_Color_01</t>
+  </si>
+  <si>
+    <t>MI_Duck_Color_02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_Duck_Color_03</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_Duck_Color_04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_Duck_Color_05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_Duck_Color_06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_Duck_Color_07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_Duck_Color_Black</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_Duck_Color_White</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -432,6 +467,13 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1051,8 +1093,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1674,39 +1716,113 @@
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48">
+        <v>10001</v>
+      </c>
+      <c r="B48">
+        <v>10001</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49">
+        <v>10002</v>
+      </c>
+      <c r="B49">
+        <v>10001</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50">
+        <v>10003</v>
+      </c>
+      <c r="B50">
+        <v>10001</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51">
+        <v>10004</v>
+      </c>
+      <c r="B51">
+        <v>10001</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52">
+        <v>10005</v>
+      </c>
+      <c r="B52">
+        <v>10001</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>10006</v>
+      </c>
+      <c r="B53">
+        <v>10001</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>10007</v>
+      </c>
+      <c r="B54">
+        <v>10001</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>10008</v>
+      </c>
+      <c r="B55">
+        <v>10001</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>10009</v>
+      </c>
+      <c r="B56">
+        <v>10001</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C90" s="1"/>

--- a/Content/TableData/BasePath_BP_File.xlsx
+++ b/Content/TableData/BasePath_BP_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFE9941-7E7F-4B91-BD92-93C9849CA2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1E7A1B-883F-4F71-ACF6-8EC70371B850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41055" yWindow="3060" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="136">
   <si>
     <t>UI/Widget/InMarket</t>
   </si>
@@ -437,6 +437,9 @@
   <si>
     <t>MI_Duck_Color_White</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemMessage</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1096,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1430,397 +1433,408 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>4001</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4001</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>422</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B27" s="2">
         <v>4001</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B28" s="2">
         <v>4001</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B29" s="2">
         <v>4001</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B30" s="2">
         <v>4001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B31" s="2">
         <v>4001</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="B32" s="2">
         <v>4001</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="B33" s="2">
         <v>4001</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="B34" s="2">
         <v>4001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B35" s="2">
         <v>4001</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B36" s="2">
         <v>4001</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B37" s="2">
         <v>4001</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>6001</v>
+        <v>4012</v>
       </c>
       <c r="B38" s="2">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>7001</v>
+        <v>6001</v>
       </c>
       <c r="B39" s="2">
-        <v>7001</v>
+        <v>5001</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B40" s="2">
         <v>7001</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B41" s="2">
         <v>7001</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B42" s="2">
         <v>7001</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="B43" s="2">
         <v>7001</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>7006</v>
+        <v>7005</v>
       </c>
       <c r="B44" s="2">
         <v>7001</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>7007</v>
+        <v>7006</v>
       </c>
       <c r="B45" s="2">
         <v>7001</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>9001</v>
+        <v>7007</v>
       </c>
       <c r="B46" s="2">
-        <v>9001</v>
+        <v>7001</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B47" s="2">
         <v>9001</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>10001</v>
-      </c>
-      <c r="B48">
-        <v>10001</v>
-      </c>
-      <c r="C48" t="s">
-        <v>126</v>
+      <c r="A48" s="2">
+        <v>9002</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9001</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B49">
         <v>10001</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B50">
         <v>10001</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B51">
         <v>10001</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B52">
         <v>10001</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B53">
         <v>10001</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B54">
         <v>10001</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B55">
         <v>10001</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B56">
         <v>10001</v>
       </c>
       <c r="C56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>10009</v>
+      </c>
+      <c r="B57">
+        <v>10001</v>
+      </c>
+      <c r="C57" t="s">
         <v>134</v>
       </c>
     </row>
